--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,349 +49,373 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>beautifully</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>mas</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>dough</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>super</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>making</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>also</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>fast</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>bought</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>job</t>
+    <t>first</t>
   </si>
   <si>
     <t>one</t>
@@ -400,22 +424,19 @@
     <t>buy</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
+    <t>made</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
   </si>
   <si>
     <t>product</t>
@@ -779,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -869,16 +890,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -890,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -919,16 +940,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -940,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -948,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -966,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9140625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -990,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -998,13 +1019,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3875968992248062</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1016,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1040,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1048,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3773584905660378</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1090,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1098,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.34</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1116,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8695652173913043</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>554</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>554</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1140,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1148,13 +1169,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3232323232323233</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1166,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1190,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1198,13 +1219,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2435897435897436</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1216,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8668730650154799</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>560</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>560</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1240,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1248,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1243243243243243</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1266,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1290,21 +1311,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>165</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7316017316017316</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1316,12 +1361,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>0.7307692307692307</v>
@@ -1347,16 +1392,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7111111111111111</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6883116883116883</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,21 +1439,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6745762711864407</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L16">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M16">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,21 +1465,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.65625</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6538461538461539</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6436597110754414</v>
+        <v>0.6452648475120385</v>
       </c>
       <c r="L19">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M19">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,21 +1543,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6197183098591549</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6171428571428571</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L21">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1576,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1602,21 +1647,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6122448979591837</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1628,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1654,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6027397260273972</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1680,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1706,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1732,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5964912280701754</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1758,47 +1803,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.5673076923076923</v>
+      </c>
+      <c r="L30">
+        <v>59</v>
+      </c>
+      <c r="M30">
+        <v>59</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>45</v>
-      </c>
-      <c r="K30">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5735294117647058</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1810,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5694444444444444</v>
+        <v>0.5625</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1836,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5576923076923077</v>
+        <v>0.5625</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1862,21 +1907,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5555555555555556</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1888,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5384615384615384</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1914,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.5263157894736842</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1940,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5172413793103449</v>
+        <v>0.525</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1966,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.5098039215686274</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1992,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5089820359281437</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L39">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2018,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.4939759036144578</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2044,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.4923076923076923</v>
+        <v>0.51</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2070,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.49</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L42">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2096,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2122,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.4700854700854701</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L44">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2148,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.4545454545454545</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2174,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4489795918367347</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2200,21 +2245,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.4473684210526316</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2226,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.4390243902439024</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2252,21 +2297,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.4320987654320987</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L49">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2278,21 +2323,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.4264705882352941</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2304,15 +2349,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.425531914893617</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L51">
         <v>20</v>
@@ -2330,21 +2375,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.4210526315789473</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L52">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2356,41 +2401,41 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.4107142857142857</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>23</v>
-      </c>
-      <c r="M53">
-        <v>23</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>33</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.4102564102564102</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L54">
         <v>16</v>
@@ -2408,21 +2453,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.4098360655737705</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2434,21 +2479,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.4096385542168675</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L56">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="M56">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2460,21 +2505,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.3709677419354839</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2486,21 +2531,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.3695652173913043</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2512,12 +2557,12 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59">
         <v>0.3684210526315789</v>
@@ -2543,16 +2588,16 @@
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.3666666666666666</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2564,21 +2609,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.3650793650793651</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2590,21 +2635,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.3636363636363636</v>
+        <v>0.3480392156862745</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2616,21 +2661,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>35</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.3602941176470588</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L63">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2642,21 +2687,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>261</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.3540856031128405</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L64">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2668,21 +2713,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.3423423423423423</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L65">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2694,21 +2739,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.3</v>
+        <v>0.3027397260273972</v>
       </c>
       <c r="L66">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M66">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2720,21 +2765,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.2980132450331126</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L67">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M67">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2746,21 +2791,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.2962962962962963</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2772,21 +2817,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.2932330827067669</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L69">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2798,21 +2843,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.2805755395683453</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L70">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M70">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2824,12 +2869,12 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71">
         <v>0.2673267326732673</v>
@@ -2855,7 +2900,7 @@
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72">
         <v>0.2631578947368421</v>
@@ -2881,16 +2926,16 @@
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.2619047619047619</v>
+        <v>0.25</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2902,21 +2947,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.2529601722282024</v>
+        <v>0.25</v>
       </c>
       <c r="L74">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2928,21 +2973,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>694</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.2522522522522522</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2954,21 +2999,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.2470588235294118</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2977,50 +3022,50 @@
         <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>64</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.2321428571428572</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.2307692307692308</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3032,21 +3077,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.2285714285714286</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L79">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3058,21 +3103,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.2222222222222222</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3084,21 +3129,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.2222222222222222</v>
+        <v>0.2132450331125828</v>
       </c>
       <c r="L81">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3110,21 +3155,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>56</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.22</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3136,47 +3181,47 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.2173913043478261</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L83">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.1946308724832215</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L84">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M84">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3188,21 +3233,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>120</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.1933774834437086</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L85">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3214,21 +3259,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>609</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.1829268292682927</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L86">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3240,21 +3285,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.180306905370844</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L87">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="M87">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3266,21 +3311,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>641</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.1755485893416928</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L88">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M88">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3292,21 +3337,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>263</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.1743119266055046</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L89">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M89">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3318,47 +3363,47 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.1717171717171717</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L90">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="M90">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>82</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.1709401709401709</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M91">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3370,21 +3415,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.1692307692307692</v>
+        <v>0.17</v>
       </c>
       <c r="L92">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M92">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3396,21 +3441,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>0.1587301587301587</v>
+        <v>0.1671159029649596</v>
       </c>
       <c r="L93">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="M93">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3422,47 +3467,47 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>106</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.1486486486486487</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L94">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M94">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N94">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>315</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.1395348837209302</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="L95">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3474,21 +3519,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.1379310344827586</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="L96">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3500,21 +3545,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>175</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.1365313653136531</v>
+        <v>0.1402214022140221</v>
       </c>
       <c r="L97">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M97">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3526,21 +3571,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.1340909090909091</v>
+        <v>0.1359649122807018</v>
       </c>
       <c r="L98">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M98">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3552,21 +3597,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.1299435028248588</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L99">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M99">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3578,21 +3623,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.1282051282051282</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L100">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M100">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3604,21 +3649,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.1226993865030675</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L101">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M101">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3630,21 +3675,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.121654501216545</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="L102">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M102">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3656,73 +3701,73 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.1196172248803828</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L103">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M103">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N103">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>368</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.1185185185185185</v>
+        <v>0.1226765799256506</v>
       </c>
       <c r="L104">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M104">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.1168384879725086</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L105">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M105">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3734,21 +3779,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.1162280701754386</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L106">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M106">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3760,21 +3805,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>403</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.1151515151515152</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L107">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M107">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3786,21 +3831,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.1134453781512605</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L108">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M108">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3812,47 +3857,47 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>211</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.07747489239598278</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L109">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M109">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N109">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>643</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.07661290322580645</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L110">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M110">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3864,47 +3909,47 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>229</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.07376283846872082</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L111">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="M111">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="N111">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>992</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K112">
-        <v>0.06598984771573604</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L112">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3916,21 +3961,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>368</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K113">
-        <v>0.06088560885608856</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L113">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M113">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3942,21 +3987,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>509</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K114">
-        <v>0.06010928961748634</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="L114">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M114">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3968,137 +4013,293 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>344</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K115">
-        <v>0.04592720970537262</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L115">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M115">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N115">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1101</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K116">
-        <v>0.04423076923076923</v>
+        <v>0.07747489239598278</v>
       </c>
       <c r="L116">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M116">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N116">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O116">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>497</v>
+        <v>643</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K117">
-        <v>0.04358353510895883</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L117">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M117">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N117">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O117">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>395</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K118">
-        <v>0.04120879120879121</v>
+        <v>0.07182835820895522</v>
       </c>
       <c r="L118">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="M118">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="N118">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>349</v>
+        <v>995</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K119">
-        <v>0.02621231979030144</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="L119">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M119">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N119">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>743</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K120">
+        <v>0.07103825136612021</v>
+      </c>
+      <c r="L120">
+        <v>26</v>
+      </c>
+      <c r="M120">
+        <v>26</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K121">
+        <v>0.05576923076923077</v>
+      </c>
+      <c r="L121">
+        <v>29</v>
+      </c>
+      <c r="M121">
+        <v>31</v>
+      </c>
+      <c r="N121">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O121">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K122">
+        <v>0.05350553505535055</v>
+      </c>
+      <c r="L122">
+        <v>29</v>
+      </c>
+      <c r="M122">
+        <v>29</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K123">
+        <v>0.05097087378640777</v>
+      </c>
+      <c r="L123">
+        <v>21</v>
+      </c>
+      <c r="M123">
+        <v>23</v>
+      </c>
+      <c r="N123">
+        <v>0.91</v>
+      </c>
+      <c r="O123">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P123" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K124">
+        <v>0.04675324675324675</v>
+      </c>
+      <c r="L124">
+        <v>54</v>
+      </c>
+      <c r="M124">
+        <v>56</v>
+      </c>
+      <c r="N124">
+        <v>0.96</v>
+      </c>
+      <c r="O124">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K125">
+        <v>0.02887139107611549</v>
+      </c>
+      <c r="L125">
+        <v>22</v>
+      </c>
+      <c r="M125">
+        <v>27</v>
+      </c>
+      <c r="N125">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O125">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
